--- a/biology/Zoologie/Arrenga_siffleur/Arrenga_siffleur.xlsx
+++ b/biology/Zoologie/Arrenga_siffleur/Arrenga_siffleur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myophonus caeruleus
-L'Arrenga siffleur (Myophonus caeruleus) ou Myophone siffleur[1], est une espèce de passereaux appartenant à la famille des Muscicapidae.
+L'Arrenga siffleur (Myophonus caeruleus) ou Myophone siffleur, est une espèce de passereaux appartenant à la famille des Muscicapidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pouvant peser jusqu'à 180 gr et mesurer 33 cm de long, il est considéré comme la plus grande espèce de grive.
 Son plumage est bleu violet.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve en Afghanistan, Bangladesh, Bhoutan, Birmanie, Cambodge, Chine, Inde, Indonésie, Kazakhstan, Laos, Malaisie, Népal, Pakistan, Tadjikistan, Thaïlande, Turkménistan et au Vietnam.
 </t>
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats naturels sont les forêts tempérées et les forêts humides subtropicales ou tropicales de montagnes, le long des cours d'eau rapides.
 </t>
@@ -606,7 +624,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les couples restent sur leur territoire toute l'année. Son nid est une coupe de mousse.
 </t>
@@ -637,11 +657,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Les travaux phylogéniques de Sangster et al. (2010) et Zuccon &amp; Ericson (2010) montrent que son placement traditionnel dans la famille des Turdidae est erroné, et que cette espèce appartient en fait à la famille des Muscicapidae[2].
-Sous-espèces
-D'après le Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les travaux phylogéniques de Sangster et al. (2010) et Zuccon &amp; Ericson (2010) montrent que son placement traditionnel dans la famille des Turdidae est erroné, et que cette espèce appartient en fait à la famille des Muscicapidae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arrenga_siffleur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arrenga_siffleur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>D'après le Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
 Myophonus caeruleus temminckii ;
 Myophonus caeruleus caeruleus ;
 Myophonus caeruleus eugenei ;
